--- a/data/pca/factorExposure/factorExposure_2017-06-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02341451043582884</v>
+        <v>-0.008603880587782721</v>
       </c>
       <c r="C2">
-        <v>0.004970245633721727</v>
+        <v>0.04394001160231713</v>
       </c>
       <c r="D2">
-        <v>0.03246175044152363</v>
+        <v>0.02981223857590363</v>
       </c>
       <c r="E2">
-        <v>0.006214943986906798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.031948768176112</v>
+      </c>
+      <c r="F2">
+        <v>0.01113547738072442</v>
+      </c>
+      <c r="G2">
+        <v>0.08521593830446017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01841932680326009</v>
+        <v>-0.04353024539125546</v>
       </c>
       <c r="C3">
-        <v>-0.04807281233092509</v>
+        <v>0.09421237420652814</v>
       </c>
       <c r="D3">
-        <v>0.08912849521238343</v>
+        <v>0.01655105263096671</v>
       </c>
       <c r="E3">
-        <v>0.01201648100908701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09906659342327459</v>
+      </c>
+      <c r="F3">
+        <v>0.003111684808611073</v>
+      </c>
+      <c r="G3">
+        <v>0.1722121824622121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02493052740284129</v>
+        <v>-0.05561520361778698</v>
       </c>
       <c r="C4">
-        <v>-0.01219420311402106</v>
+        <v>0.06829239119039412</v>
       </c>
       <c r="D4">
-        <v>0.08826297572248722</v>
+        <v>0.02452300183693265</v>
       </c>
       <c r="E4">
-        <v>-0.01831610134383364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02628152001535653</v>
+      </c>
+      <c r="F4">
+        <v>0.01144918050042428</v>
+      </c>
+      <c r="G4">
+        <v>0.0934571770643097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01488546967121048</v>
+        <v>-0.03728474350109045</v>
       </c>
       <c r="C6">
-        <v>0.001161695009625148</v>
+        <v>0.05337212937980945</v>
       </c>
       <c r="D6">
-        <v>0.0851374225841228</v>
+        <v>0.01668956219991416</v>
       </c>
       <c r="E6">
-        <v>-0.008513286516041796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02707099433178103</v>
+      </c>
+      <c r="F6">
+        <v>0.008204481854933464</v>
+      </c>
+      <c r="G6">
+        <v>0.06680274894941333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01162411226000402</v>
+        <v>-0.01969823925890313</v>
       </c>
       <c r="C7">
-        <v>-0.006133898645147573</v>
+        <v>0.04104729935750157</v>
       </c>
       <c r="D7">
-        <v>0.04481305570243539</v>
+        <v>0.01325533613151671</v>
       </c>
       <c r="E7">
-        <v>-0.06164974138829572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.005078613062335001</v>
+      </c>
+      <c r="F7">
+        <v>-0.003528748355101361</v>
+      </c>
+      <c r="G7">
+        <v>0.1237061768649893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0007280091987398792</v>
+        <v>-0.002350019674851621</v>
       </c>
       <c r="C8">
-        <v>0.0005127286147495267</v>
+        <v>0.02429505637283028</v>
       </c>
       <c r="D8">
-        <v>0.007064451387747302</v>
+        <v>0.003987104734097601</v>
       </c>
       <c r="E8">
-        <v>-0.008709390121124629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02209099531312611</v>
+      </c>
+      <c r="F8">
+        <v>0.006805413279826635</v>
+      </c>
+      <c r="G8">
+        <v>0.06039877774523797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01713664725019204</v>
+        <v>-0.0326210911344018</v>
       </c>
       <c r="C9">
-        <v>-0.01284916355388948</v>
+        <v>0.0496374727062486</v>
       </c>
       <c r="D9">
-        <v>0.06502582961079689</v>
+        <v>0.01690056746300365</v>
       </c>
       <c r="E9">
-        <v>-0.007197968488407558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01779724965816176</v>
+      </c>
+      <c r="F9">
+        <v>0.009711301698384975</v>
+      </c>
+      <c r="G9">
+        <v>0.08990165247283614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02670030583813042</v>
+        <v>-0.09899146681992559</v>
       </c>
       <c r="C10">
-        <v>-0.1728030514897978</v>
+        <v>-0.1809030951694656</v>
       </c>
       <c r="D10">
-        <v>-0.1021137239786731</v>
+        <v>-0.01455708025388247</v>
       </c>
       <c r="E10">
-        <v>0.01197797945934013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02006352411934546</v>
+      </c>
+      <c r="F10">
+        <v>-0.02131810214465514</v>
+      </c>
+      <c r="G10">
+        <v>0.0597429458933631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.001133328407693688</v>
+        <v>-0.03400671005380105</v>
       </c>
       <c r="C11">
-        <v>-0.002576319530061657</v>
+        <v>0.05480319675734226</v>
       </c>
       <c r="D11">
-        <v>0.05718537958869149</v>
+        <v>0.002384466899971052</v>
       </c>
       <c r="E11">
-        <v>0.001459903467257833</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.008943364094043262</v>
+      </c>
+      <c r="F11">
+        <v>0.02182186008711715</v>
+      </c>
+      <c r="G11">
+        <v>0.07371071688201197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005964422077872344</v>
+        <v>-0.03550217845052316</v>
       </c>
       <c r="C12">
-        <v>-0.004184081787082556</v>
+        <v>0.04902178813693818</v>
       </c>
       <c r="D12">
-        <v>0.05226140153564647</v>
+        <v>0.006192868845069444</v>
       </c>
       <c r="E12">
-        <v>-0.01018611310244226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.000989623267570836</v>
+      </c>
+      <c r="F12">
+        <v>0.001272058521904798</v>
+      </c>
+      <c r="G12">
+        <v>0.06958674867020687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02456469612935734</v>
+        <v>-0.01482459588643235</v>
       </c>
       <c r="C13">
-        <v>-0.01585300269442383</v>
+        <v>0.03963178480868653</v>
       </c>
       <c r="D13">
-        <v>0.03591357294601618</v>
+        <v>0.02625711107681242</v>
       </c>
       <c r="E13">
-        <v>0.00657952877570196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.0294483801507128</v>
+      </c>
+      <c r="F13">
+        <v>0.007859143630472954</v>
+      </c>
+      <c r="G13">
+        <v>0.105959829852586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009206705943945567</v>
+        <v>-0.007841444478667503</v>
       </c>
       <c r="C14">
-        <v>-0.01336837535040483</v>
+        <v>0.02801194380301222</v>
       </c>
       <c r="D14">
-        <v>0.01665883014251554</v>
+        <v>0.009714683765394519</v>
       </c>
       <c r="E14">
-        <v>-0.007548665169633339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.001122307261559849</v>
+      </c>
+      <c r="F14">
+        <v>-0.006831504412599815</v>
+      </c>
+      <c r="G14">
+        <v>0.09041825135624472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001986258204603432</v>
+        <v>-0.0327988874534971</v>
       </c>
       <c r="C16">
-        <v>-0.008509511474546174</v>
+        <v>0.04852735707630174</v>
       </c>
       <c r="D16">
-        <v>0.05384208696513948</v>
+        <v>0.001905866835616379</v>
       </c>
       <c r="E16">
-        <v>-0.009212027504048925</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.007633396836218488</v>
+      </c>
+      <c r="F16">
+        <v>0.002679528018752221</v>
+      </c>
+      <c r="G16">
+        <v>0.07701437740238154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01545633678282183</v>
+        <v>-0.02012042375436153</v>
       </c>
       <c r="C19">
-        <v>-0.01693943713538048</v>
+        <v>0.05265485047505346</v>
       </c>
       <c r="D19">
-        <v>0.03956718207061537</v>
+        <v>0.01890194716950892</v>
       </c>
       <c r="E19">
-        <v>-0.006606030199245537</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.0672094658108615</v>
+      </c>
+      <c r="F19">
+        <v>0.02140211744272818</v>
+      </c>
+      <c r="G19">
+        <v>0.1247156831712547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01146760572284147</v>
+        <v>-0.01383629138980177</v>
       </c>
       <c r="C20">
-        <v>-0.005152264803693098</v>
+        <v>0.03894016689129202</v>
       </c>
       <c r="D20">
-        <v>0.03255802797233302</v>
+        <v>0.01414777411638675</v>
       </c>
       <c r="E20">
-        <v>0.008790097807245689</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02771059027634171</v>
+      </c>
+      <c r="F20">
+        <v>-0.01011001871523223</v>
+      </c>
+      <c r="G20">
+        <v>0.09802635613629512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01629086509114775</v>
+        <v>-0.01263390894070726</v>
       </c>
       <c r="C21">
-        <v>-0.01756232825855285</v>
+        <v>0.04000231112386617</v>
       </c>
       <c r="D21">
-        <v>0.03848143411896159</v>
+        <v>0.01850511342573037</v>
       </c>
       <c r="E21">
-        <v>-0.01219138777107029</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.04152265879146348</v>
+      </c>
+      <c r="F21">
+        <v>-0.0001561308954657633</v>
+      </c>
+      <c r="G21">
+        <v>0.1253511119955528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.000610642767224296</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002768422591729633</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0002701793930467242</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.001006708581088688</v>
+      </c>
+      <c r="F22">
+        <v>-0.0001961940237016593</v>
+      </c>
+      <c r="G22">
+        <v>0.002650311989430851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0006149824133381506</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002764594068243618</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0002703060162250378</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.001012205289049083</v>
+      </c>
+      <c r="F23">
+        <v>-0.0001979878879098153</v>
+      </c>
+      <c r="G23">
+        <v>0.00265966719452086</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004633186684094745</v>
+        <v>-0.02755420737826134</v>
       </c>
       <c r="C24">
-        <v>0.003238331738962183</v>
+        <v>0.05126114913056206</v>
       </c>
       <c r="D24">
-        <v>0.05202822541542586</v>
+        <v>0.007182856880592188</v>
       </c>
       <c r="E24">
-        <v>-0.007333091669057905</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0047586687735481</v>
+      </c>
+      <c r="F24">
+        <v>0.01426553729388341</v>
+      </c>
+      <c r="G24">
+        <v>0.07660934429553029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01291117264488228</v>
+        <v>-0.04218014215809291</v>
       </c>
       <c r="C25">
-        <v>-0.01360315919978878</v>
+        <v>0.0589714403946316</v>
       </c>
       <c r="D25">
-        <v>0.05756700353228746</v>
+        <v>0.01111214097890916</v>
       </c>
       <c r="E25">
-        <v>-0.006463854700649341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.00239084007889759</v>
+      </c>
+      <c r="F25">
+        <v>0.008083394606391217</v>
+      </c>
+      <c r="G25">
+        <v>0.08336107242429838</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02340094162950268</v>
+        <v>-0.01374190754381556</v>
       </c>
       <c r="C26">
-        <v>-0.006919746128925589</v>
+        <v>0.01160675361804764</v>
       </c>
       <c r="D26">
-        <v>0.002057119100708105</v>
+        <v>0.02381782996971734</v>
       </c>
       <c r="E26">
-        <v>-0.0104590192340242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.004972931235165829</v>
+      </c>
+      <c r="F26">
+        <v>-0.009009876031596817</v>
+      </c>
+      <c r="G26">
+        <v>0.07323571583343391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.05120878566827909</v>
+        <v>-0.1270238058910228</v>
       </c>
       <c r="C28">
-        <v>-0.2410258908628292</v>
+        <v>-0.2356123202416732</v>
       </c>
       <c r="D28">
-        <v>-0.1343122348807023</v>
+        <v>-0.005366494643770313</v>
       </c>
       <c r="E28">
-        <v>-0.00783278390397389</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.007720327642452567</v>
+      </c>
+      <c r="F28">
+        <v>-0.01631319261812084</v>
+      </c>
+      <c r="G28">
+        <v>0.06323798844283678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009545222489234858</v>
+        <v>-0.009157574388296043</v>
       </c>
       <c r="C29">
-        <v>-0.01731638374134407</v>
+        <v>0.02177851517401658</v>
       </c>
       <c r="D29">
-        <v>0.01449189834198832</v>
+        <v>0.00864853771330216</v>
       </c>
       <c r="E29">
-        <v>-0.003001321880609322</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.0003360412997354267</v>
+      </c>
+      <c r="F29">
+        <v>-0.01490927668463823</v>
+      </c>
+      <c r="G29">
+        <v>0.08185860892129558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02437176362503553</v>
+        <v>-0.04072980783647589</v>
       </c>
       <c r="C30">
-        <v>0.002791584044317664</v>
+        <v>0.06857550071653531</v>
       </c>
       <c r="D30">
-        <v>0.0961394522596984</v>
+        <v>0.02881889695021971</v>
       </c>
       <c r="E30">
-        <v>0.04005860653478007</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05034130701360807</v>
+      </c>
+      <c r="F30">
+        <v>0.04834016428901682</v>
+      </c>
+      <c r="G30">
+        <v>0.09516477204080209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01143178938643494</v>
+        <v>-0.05252300924779004</v>
       </c>
       <c r="C31">
-        <v>-0.03914012803697899</v>
+        <v>0.0375728209082982</v>
       </c>
       <c r="D31">
-        <v>0.03877730014890522</v>
+        <v>0.003679198308509202</v>
       </c>
       <c r="E31">
-        <v>-0.009329775060156973</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.003004820761137048</v>
+      </c>
+      <c r="F31">
+        <v>-0.03951597224855772</v>
+      </c>
+      <c r="G31">
+        <v>0.08063434925786196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004881252794384002</v>
+        <v>-0.001281006264718172</v>
       </c>
       <c r="C32">
-        <v>-0.01896218680386135</v>
+        <v>0.02487194752319864</v>
       </c>
       <c r="D32">
-        <v>0.006076214822061673</v>
+        <v>-0.003647913536932343</v>
       </c>
       <c r="E32">
-        <v>-0.05102218876857999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01763772215431214</v>
+      </c>
+      <c r="F32">
+        <v>0.03906501497233467</v>
+      </c>
+      <c r="G32">
+        <v>0.09386959411240811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0153692893138234</v>
+        <v>-0.02690701438383069</v>
       </c>
       <c r="C33">
-        <v>-0.02363450689275091</v>
+        <v>0.0497647815295258</v>
       </c>
       <c r="D33">
-        <v>0.04351516932314505</v>
+        <v>0.01561328753819988</v>
       </c>
       <c r="E33">
-        <v>0.02688484743421111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.0341351662679726</v>
+      </c>
+      <c r="F33">
+        <v>0.01700250112960319</v>
+      </c>
+      <c r="G33">
+        <v>0.1240162639029873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003328906107911437</v>
+        <v>-0.03989669455333932</v>
       </c>
       <c r="C34">
-        <v>-0.01465151141986146</v>
+        <v>0.06155733187039237</v>
       </c>
       <c r="D34">
-        <v>0.05691558264592406</v>
+        <v>-0.004682767415549597</v>
       </c>
       <c r="E34">
-        <v>-0.01473333084315601</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.001185048353280724</v>
+      </c>
+      <c r="F34">
+        <v>0.0201356925771898</v>
+      </c>
+      <c r="G34">
+        <v>0.08475646875710727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01385109410252341</v>
+        <v>-0.01554019026233039</v>
       </c>
       <c r="C36">
-        <v>-0.01834748799496886</v>
+        <v>0.009182563074211704</v>
       </c>
       <c r="D36">
-        <v>0.008108189938925333</v>
+        <v>0.01219270165045355</v>
       </c>
       <c r="E36">
-        <v>-0.005190116319037317</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.003347010574175325</v>
+      </c>
+      <c r="F36">
+        <v>-0.006175649706412372</v>
+      </c>
+      <c r="G36">
+        <v>0.0739426842379811</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001367929095563151</v>
+        <v>-0.03200529930998612</v>
       </c>
       <c r="C38">
-        <v>-0.03431604119316655</v>
+        <v>0.03159491779900844</v>
       </c>
       <c r="D38">
-        <v>0.051565358006105</v>
+        <v>-0.007646495456320375</v>
       </c>
       <c r="E38">
-        <v>-0.01034114628424023</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001739977613233688</v>
+      </c>
+      <c r="F38">
+        <v>-0.01830833416631801</v>
+      </c>
+      <c r="G38">
+        <v>0.07570382974358462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004333459579742331</v>
+        <v>-0.03459859690787431</v>
       </c>
       <c r="C39">
-        <v>0.0245659033088518</v>
+        <v>0.08084881205877577</v>
       </c>
       <c r="D39">
-        <v>0.1031305330427559</v>
+        <v>0.01168346307078461</v>
       </c>
       <c r="E39">
-        <v>0.005419043921004261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02016603481653079</v>
+      </c>
+      <c r="F39">
+        <v>0.02631559003558817</v>
+      </c>
+      <c r="G39">
+        <v>0.07497747293065073</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01275182110592575</v>
+        <v>-0.01517413289949336</v>
       </c>
       <c r="C40">
-        <v>-0.01364662115312055</v>
+        <v>0.04304791378436739</v>
       </c>
       <c r="D40">
-        <v>0.04228113880713618</v>
+        <v>0.01474123973800481</v>
       </c>
       <c r="E40">
-        <v>-0.01134305238234878</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01982266812146888</v>
+      </c>
+      <c r="F40">
+        <v>-0.0153432707869143</v>
+      </c>
+      <c r="G40">
+        <v>0.11223916718369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.007070763409318063</v>
+        <v>-0.01921270129423908</v>
       </c>
       <c r="C41">
-        <v>-0.02142621160109841</v>
+        <v>0.001188460850053897</v>
       </c>
       <c r="D41">
-        <v>-0.0125324637916402</v>
+        <v>0.004300294775938873</v>
       </c>
       <c r="E41">
-        <v>-0.002099172238873139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.001769145034223704</v>
+      </c>
+      <c r="F41">
+        <v>-0.01263208924185045</v>
+      </c>
+      <c r="G41">
+        <v>0.06265458393407274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09014147778755922</v>
+        <v>-0.008566333424781832</v>
       </c>
       <c r="C42">
-        <v>0.0394673812000598</v>
+        <v>0.03738590624018562</v>
       </c>
       <c r="D42">
-        <v>0.1756462501865427</v>
+        <v>0.09180315411822505</v>
       </c>
       <c r="E42">
-        <v>0.4130723943266175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.01708377407608908</v>
+      </c>
+      <c r="F42">
+        <v>-0.0366679570700143</v>
+      </c>
+      <c r="G42">
+        <v>-0.1526023408609672</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.008516256818249914</v>
+        <v>-0.03278978389904798</v>
       </c>
       <c r="C43">
-        <v>-0.02594790396592239</v>
+        <v>0.01696318425819033</v>
       </c>
       <c r="D43">
-        <v>-0.009916139888411286</v>
+        <v>0.006046103339979202</v>
       </c>
       <c r="E43">
-        <v>-4.65586232261852e-05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01527736924702746</v>
+      </c>
+      <c r="F43">
+        <v>-0.003328373005902971</v>
+      </c>
+      <c r="G43">
+        <v>0.092998144225157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003650815364295324</v>
+        <v>-0.01180846060763523</v>
       </c>
       <c r="C44">
-        <v>-0.002747477296659341</v>
+        <v>0.058754281092253</v>
       </c>
       <c r="D44">
-        <v>0.05325327067238035</v>
+        <v>0.006650734884227689</v>
       </c>
       <c r="E44">
-        <v>-0.008355048368778822</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01687831355210653</v>
+      </c>
+      <c r="F44">
+        <v>-0.008115563003715421</v>
+      </c>
+      <c r="G44">
+        <v>0.09066953987353987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01167752193366038</v>
+        <v>-0.00775092327808017</v>
       </c>
       <c r="C46">
-        <v>-0.01248564591982087</v>
+        <v>0.01714275457827285</v>
       </c>
       <c r="D46">
-        <v>0.005470253097389795</v>
+        <v>0.01235392991656171</v>
       </c>
       <c r="E46">
-        <v>0.0004641951796889032</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0003559196732062731</v>
+      </c>
+      <c r="F46">
+        <v>-0.01533268426366168</v>
+      </c>
+      <c r="G46">
+        <v>0.0851613593168401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.006057541482516516</v>
+        <v>-0.07673826719560629</v>
       </c>
       <c r="C47">
-        <v>-0.04675182574883016</v>
+        <v>0.06669761365477289</v>
       </c>
       <c r="D47">
-        <v>0.07024391142451189</v>
+        <v>-0.005231995752060294</v>
       </c>
       <c r="E47">
-        <v>-0.007083954776025452</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008356250083022746</v>
+      </c>
+      <c r="F47">
+        <v>-0.05454161528972586</v>
+      </c>
+      <c r="G47">
+        <v>0.07274847020118817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.005139986648606539</v>
+        <v>-0.02002097651586272</v>
       </c>
       <c r="C48">
-        <v>-0.02390434406426866</v>
+        <v>0.01269526841243066</v>
       </c>
       <c r="D48">
-        <v>0.01986792128542974</v>
+        <v>0.001637950931681784</v>
       </c>
       <c r="E48">
-        <v>-0.00248438528061767</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.0008584373990296789</v>
+      </c>
+      <c r="F48">
+        <v>-0.02096131628766197</v>
+      </c>
+      <c r="G48">
+        <v>0.07920249087491409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.008157791207541161</v>
+        <v>-0.07495187212763058</v>
       </c>
       <c r="C50">
-        <v>-0.05000324236306034</v>
+        <v>0.07024864254638787</v>
       </c>
       <c r="D50">
-        <v>0.06808476868906557</v>
+        <v>-0.002856365858177596</v>
       </c>
       <c r="E50">
-        <v>-0.03249524691393644</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.009482964129571338</v>
+      </c>
+      <c r="F50">
+        <v>-0.0573540573770821</v>
+      </c>
+      <c r="G50">
+        <v>0.08977958509711118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008105105434091625</v>
+        <v>-0.01362766908826607</v>
       </c>
       <c r="C51">
-        <v>-0.01365954707387792</v>
+        <v>0.03538493767230886</v>
       </c>
       <c r="D51">
-        <v>0.0155279943918011</v>
+        <v>0.01026933066672685</v>
       </c>
       <c r="E51">
-        <v>-0.006767235697258745</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01762877309811714</v>
+      </c>
+      <c r="F51">
+        <v>0.02401156739079361</v>
+      </c>
+      <c r="G51">
+        <v>0.1128797951727186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.01017274214944591</v>
+        <v>-0.08141670096495583</v>
       </c>
       <c r="C53">
-        <v>-0.05771957473350689</v>
+        <v>0.08492867110290742</v>
       </c>
       <c r="D53">
-        <v>0.1271095264751046</v>
+        <v>-0.003937766452131341</v>
       </c>
       <c r="E53">
-        <v>-0.01460090775240971</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02668195666876384</v>
+      </c>
+      <c r="F53">
+        <v>-0.06772378893300289</v>
+      </c>
+      <c r="G53">
+        <v>0.07255054467589965</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002881588082521093</v>
+        <v>-0.02926373224642909</v>
       </c>
       <c r="C54">
-        <v>-0.03358822381761652</v>
+        <v>0.01596927090825197</v>
       </c>
       <c r="D54">
-        <v>0.0009089651276757632</v>
+        <v>-0.001303289574340775</v>
       </c>
       <c r="E54">
-        <v>0.001415528299543475</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01183756541041372</v>
+      </c>
+      <c r="F54">
+        <v>0.001081796738457692</v>
+      </c>
+      <c r="G54">
+        <v>0.08613376557499329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.00533456215771867</v>
+        <v>-0.07062354184646913</v>
       </c>
       <c r="C55">
-        <v>-0.03577802734979164</v>
+        <v>0.06886881613956036</v>
       </c>
       <c r="D55">
-        <v>0.09981028297939404</v>
+        <v>-0.005252452083685108</v>
       </c>
       <c r="E55">
-        <v>0.001429949625600452</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02326555072011715</v>
+      </c>
+      <c r="F55">
+        <v>-0.06287650990553127</v>
+      </c>
+      <c r="G55">
+        <v>0.04477026748977607</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.009898352014408042</v>
+        <v>-0.1374925622140353</v>
       </c>
       <c r="C56">
-        <v>-0.08205050069544627</v>
+        <v>0.1087535128834023</v>
       </c>
       <c r="D56">
-        <v>0.1539256484894986</v>
+        <v>-0.01288429235320209</v>
       </c>
       <c r="E56">
-        <v>-0.006916920075016256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03292008779812091</v>
+      </c>
+      <c r="F56">
+        <v>-0.08146800237921471</v>
+      </c>
+      <c r="G56">
+        <v>0.02080878112999616</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02449203016207326</v>
+        <v>-0.00684520627619844</v>
       </c>
       <c r="C57">
-        <v>-0.006638746360019322</v>
+        <v>0.009562712794559353</v>
       </c>
       <c r="D57">
-        <v>0.06586109658046307</v>
+        <v>0.02354846858190899</v>
       </c>
       <c r="E57">
-        <v>0.008269581450582061</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02521352239210661</v>
+      </c>
+      <c r="F57">
+        <v>0.008561250013167194</v>
+      </c>
+      <c r="G57">
+        <v>0.02881488173629251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01504378036580375</v>
+        <v>-0.05446532279401135</v>
       </c>
       <c r="C58">
-        <v>-0.05800034930634026</v>
+        <v>0.05494927805708989</v>
       </c>
       <c r="D58">
-        <v>0.1775773776939836</v>
+        <v>0.02562198553508224</v>
       </c>
       <c r="E58">
-        <v>0.4925698545801784</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9345424741045079</v>
+      </c>
+      <c r="F58">
+        <v>-0.237932380643214</v>
+      </c>
+      <c r="G58">
+        <v>-0.1298760825703261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.05126814278680199</v>
+        <v>-0.1607794167736605</v>
       </c>
       <c r="C59">
-        <v>-0.26640667432221</v>
+        <v>-0.2028533304585018</v>
       </c>
       <c r="D59">
-        <v>-0.1247031201132918</v>
+        <v>-0.01081499617100489</v>
       </c>
       <c r="E59">
-        <v>-0.007069661870757618</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01928287985648114</v>
+      </c>
+      <c r="F59">
+        <v>0.004177930952391819</v>
+      </c>
+      <c r="G59">
+        <v>0.04150521527172401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04775893500428101</v>
+        <v>-0.2859498987224969</v>
       </c>
       <c r="C60">
-        <v>-0.1574402721292418</v>
+        <v>0.1076107780049024</v>
       </c>
       <c r="D60">
-        <v>0.121057750499371</v>
+        <v>0.01276053432610268</v>
       </c>
       <c r="E60">
-        <v>-0.02190309924660668</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.0008111163587749104</v>
+      </c>
+      <c r="F60">
+        <v>0.3517729305582322</v>
+      </c>
+      <c r="G60">
+        <v>-0.1286568201153603</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003791405656534695</v>
+        <v>-0.03673318877478204</v>
       </c>
       <c r="C61">
-        <v>-0.003604539984070088</v>
+        <v>0.06727756965562433</v>
       </c>
       <c r="D61">
-        <v>0.0784082931799938</v>
+        <v>0.005182726831552448</v>
       </c>
       <c r="E61">
-        <v>-0.008664872385356794</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01243910464278088</v>
+      </c>
+      <c r="F61">
+        <v>0.01439025451592292</v>
+      </c>
+      <c r="G61">
+        <v>0.07662974940038539</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008313681196594829</v>
+        <v>-0.01388787660692807</v>
       </c>
       <c r="C63">
-        <v>-0.005114907817252747</v>
+        <v>0.02958944426816567</v>
       </c>
       <c r="D63">
-        <v>0.02405892070205671</v>
+        <v>0.008357812658958358</v>
       </c>
       <c r="E63">
-        <v>-0.01265109379095887</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-3.607794255304176e-05</v>
+      </c>
+      <c r="F63">
+        <v>-0.01647741842745092</v>
+      </c>
+      <c r="G63">
+        <v>0.07814494953175607</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.01022912519351273</v>
+        <v>-0.04698438161979879</v>
       </c>
       <c r="C64">
-        <v>-0.02720430175104954</v>
+        <v>0.04717476827055032</v>
       </c>
       <c r="D64">
-        <v>0.05959246232503007</v>
+        <v>0.006283784999692474</v>
       </c>
       <c r="E64">
-        <v>0.003373163461122312</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>5.115012697297473e-05</v>
+      </c>
+      <c r="F64">
+        <v>0.006574704708482936</v>
+      </c>
+      <c r="G64">
+        <v>0.07770932953565773</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01797866073322369</v>
+        <v>-0.07572383115755907</v>
       </c>
       <c r="C65">
-        <v>-0.002077453280196334</v>
+        <v>0.06085661507596146</v>
       </c>
       <c r="D65">
-        <v>0.1041225736739806</v>
+        <v>0.01636141487817297</v>
       </c>
       <c r="E65">
-        <v>-0.01517932478796897</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02880516912714187</v>
+      </c>
+      <c r="F65">
+        <v>0.02879707398704822</v>
+      </c>
+      <c r="G65">
+        <v>0.02874480811478907</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004867436999914736</v>
+        <v>-0.05055135963127016</v>
       </c>
       <c r="C66">
-        <v>0.01963626172606826</v>
+        <v>0.1104937123223183</v>
       </c>
       <c r="D66">
-        <v>0.1390496672807561</v>
+        <v>0.01171103225084395</v>
       </c>
       <c r="E66">
-        <v>7.696786186600516e-05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02956404092462594</v>
+      </c>
+      <c r="F66">
+        <v>0.03592681651161219</v>
+      </c>
+      <c r="G66">
+        <v>0.09044174493735593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.005817186150427941</v>
+        <v>-0.0548911449420357</v>
       </c>
       <c r="C67">
-        <v>-0.05407240802650095</v>
+        <v>0.03539041622503346</v>
       </c>
       <c r="D67">
-        <v>0.06565978420003572</v>
+        <v>-0.00600340838062637</v>
       </c>
       <c r="E67">
-        <v>-0.01103606340911895</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004858705111608144</v>
+      </c>
+      <c r="F67">
+        <v>-0.01807898210901212</v>
+      </c>
+      <c r="G67">
+        <v>0.06758847793747065</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06490502888778497</v>
+        <v>-0.1541463831579244</v>
       </c>
       <c r="C68">
-        <v>-0.2367234904985009</v>
+        <v>-0.2685002697416215</v>
       </c>
       <c r="D68">
-        <v>-0.163307439747132</v>
+        <v>0.006654175958617923</v>
       </c>
       <c r="E68">
-        <v>0.02163897547063262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01277239156947952</v>
+      </c>
+      <c r="F68">
+        <v>-0.03153681785122065</v>
+      </c>
+      <c r="G68">
+        <v>0.02939167945750407</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001341490642922471</v>
+        <v>-0.0808016066316963</v>
       </c>
       <c r="C69">
-        <v>-0.03976358242918295</v>
+        <v>0.06980087256732258</v>
       </c>
       <c r="D69">
-        <v>0.07370235966860023</v>
+        <v>-0.009168918431416064</v>
       </c>
       <c r="E69">
-        <v>-0.01658859388171356</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02408469706927386</v>
+      </c>
+      <c r="F69">
+        <v>-0.03676248135178824</v>
+      </c>
+      <c r="G69">
+        <v>0.07987341669276538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04932850075510881</v>
+        <v>-0.1404217319876955</v>
       </c>
       <c r="C71">
-        <v>-0.2087889389810083</v>
+        <v>-0.2273677850084128</v>
       </c>
       <c r="D71">
-        <v>-0.1146737847286197</v>
+        <v>-0.002033395061762863</v>
       </c>
       <c r="E71">
-        <v>0.0137139740347643</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03312392227059387</v>
+      </c>
+      <c r="F71">
+        <v>-0.01946941499516576</v>
+      </c>
+      <c r="G71">
+        <v>0.06315023151170249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0003146847311904019</v>
+        <v>-0.08459409956303282</v>
       </c>
       <c r="C72">
-        <v>-0.03117661125722341</v>
+        <v>0.07437182533595718</v>
       </c>
       <c r="D72">
-        <v>0.113763956833393</v>
+        <v>-0.007956698283453608</v>
       </c>
       <c r="E72">
-        <v>-0.01451351985114265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.003163566204521962</v>
+      </c>
+      <c r="F72">
+        <v>0.04059376116929073</v>
+      </c>
+      <c r="G72">
+        <v>0.06926650624845783</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.06098101238166337</v>
+        <v>-0.3738291575176766</v>
       </c>
       <c r="C73">
-        <v>-0.1684537595677089</v>
+        <v>0.1200310443069581</v>
       </c>
       <c r="D73">
-        <v>0.2316222620677872</v>
+        <v>0.02221489888410506</v>
       </c>
       <c r="E73">
-        <v>0.01386279999607041</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.07320199066132829</v>
+      </c>
+      <c r="F73">
+        <v>0.5756693585308145</v>
+      </c>
+      <c r="G73">
+        <v>-0.2425378236633489</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.006735696191153207</v>
+        <v>-0.1049412639718455</v>
       </c>
       <c r="C74">
-        <v>-0.06641465365242452</v>
+        <v>0.1105125078502909</v>
       </c>
       <c r="D74">
-        <v>0.1671658635550122</v>
+        <v>-0.009770705805954003</v>
       </c>
       <c r="E74">
-        <v>0.003984521069701377</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.009860313300349545</v>
+      </c>
+      <c r="F74">
+        <v>-0.07131260161587218</v>
+      </c>
+      <c r="G74">
+        <v>0.06407508590770009</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01767890857510354</v>
+        <v>-0.2490118484876417</v>
       </c>
       <c r="C75">
-        <v>-0.1572340702955025</v>
+        <v>0.151472931020548</v>
       </c>
       <c r="D75">
-        <v>0.2824133551609047</v>
+        <v>-0.03116825520176616</v>
       </c>
       <c r="E75">
-        <v>0.01564484425401129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05727877471209952</v>
+      </c>
+      <c r="F75">
+        <v>-0.1765883192299329</v>
+      </c>
+      <c r="G75">
+        <v>-0.0573044095117031</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.006142081158772595</v>
+        <v>-0.1215221064309015</v>
       </c>
       <c r="C76">
-        <v>-0.1044942350127298</v>
+        <v>0.1118404190773854</v>
       </c>
       <c r="D76">
-        <v>0.2152028662433653</v>
+        <v>-0.01985504710874163</v>
       </c>
       <c r="E76">
-        <v>-0.03152979417283402</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03624249033975359</v>
+      </c>
+      <c r="F76">
+        <v>-0.1170756802080594</v>
+      </c>
+      <c r="G76">
+        <v>0.04024777300628882</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01660535884266679</v>
+        <v>-0.06817060414967879</v>
       </c>
       <c r="C77">
-        <v>-0.02834119688467596</v>
+        <v>0.06162027258041876</v>
       </c>
       <c r="D77">
-        <v>0.06635953076339804</v>
+        <v>0.01151919488061297</v>
       </c>
       <c r="E77">
-        <v>-0.0004911509668247655</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04197585705449913</v>
+      </c>
+      <c r="F77">
+        <v>0.009613019695699949</v>
+      </c>
+      <c r="G77">
+        <v>0.06158455155544598</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.006383719110611264</v>
+        <v>-0.04213866032931677</v>
       </c>
       <c r="C78">
-        <v>-0.01463299485670688</v>
+        <v>0.0520818088144655</v>
       </c>
       <c r="D78">
-        <v>0.05846990005440399</v>
+        <v>0.005517837066310823</v>
       </c>
       <c r="E78">
-        <v>-0.002468335277002177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02118738436777335</v>
+      </c>
+      <c r="F78">
+        <v>0.03564984048978513</v>
+      </c>
+      <c r="G78">
+        <v>0.08111250968222639</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01726848001867361</v>
+        <v>-0.05227068595864977</v>
       </c>
       <c r="C80">
-        <v>-0.06413771514693237</v>
+        <v>0.07591737982187169</v>
       </c>
       <c r="D80">
-        <v>0.2031875293610919</v>
+        <v>0.01015306193964643</v>
       </c>
       <c r="E80">
-        <v>-0.7391593066928036</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03425190290665809</v>
+      </c>
+      <c r="F80">
+        <v>0.00561911901565959</v>
+      </c>
+      <c r="G80">
+        <v>0.5146704417859603</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.01196833057040773</v>
+        <v>-0.1402382026724484</v>
       </c>
       <c r="C81">
-        <v>-0.09585082907142195</v>
+        <v>0.097309001983247</v>
       </c>
       <c r="D81">
-        <v>0.1691762811750203</v>
+        <v>-0.01560540336081975</v>
       </c>
       <c r="E81">
-        <v>-0.01531248924196676</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03437863326201506</v>
+      </c>
+      <c r="F81">
+        <v>-0.1355369015823918</v>
+      </c>
+      <c r="G81">
+        <v>0.01899506008797966</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1250763375925811</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07232178954394733</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008187128780470768</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08948264243781863</v>
+      </c>
+      <c r="F82">
+        <v>-0.03605810267053811</v>
+      </c>
+      <c r="G82">
+        <v>0.0346252821482571</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.008695660452861884</v>
+        <v>-0.03636320150336858</v>
       </c>
       <c r="C83">
-        <v>-0.02328022479657578</v>
+        <v>0.02946158906887984</v>
       </c>
       <c r="D83">
-        <v>0.03584392245666537</v>
+        <v>0.005675206178651534</v>
       </c>
       <c r="E83">
-        <v>0.002325225713383922</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02748507479422085</v>
+      </c>
+      <c r="F83">
+        <v>0.03273682454366738</v>
+      </c>
+      <c r="G83">
+        <v>0.05726423325151687</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02402828649697396</v>
+        <v>-0.2155847042243323</v>
       </c>
       <c r="C85">
-        <v>-0.1269287934090894</v>
+        <v>0.1459731632939982</v>
       </c>
       <c r="D85">
-        <v>0.2589361697884803</v>
+        <v>-0.0190309664036739</v>
       </c>
       <c r="E85">
-        <v>0.003494189909361144</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09895750077096244</v>
+      </c>
+      <c r="F85">
+        <v>-0.1386494200784598</v>
+      </c>
+      <c r="G85">
+        <v>-0.1131259447901089</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01038737499374924</v>
+        <v>-0.01343481394407539</v>
       </c>
       <c r="C86">
-        <v>-0.02567353227727426</v>
+        <v>0.02832254904655555</v>
       </c>
       <c r="D86">
-        <v>0.05008898548225893</v>
+        <v>0.01246031413009526</v>
       </c>
       <c r="E86">
-        <v>0.03443112514442373</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04619020827419174</v>
+      </c>
+      <c r="F86">
+        <v>0.03148027645568729</v>
+      </c>
+      <c r="G86">
+        <v>0.1702850541890204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008634170541725335</v>
+        <v>-0.02278953862249773</v>
       </c>
       <c r="C87">
-        <v>-0.002066763782109546</v>
+        <v>0.0234281386811939</v>
       </c>
       <c r="D87">
-        <v>0.05827871379484752</v>
+        <v>0.01211378386168788</v>
       </c>
       <c r="E87">
-        <v>0.007014622758141804</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08547703727330108</v>
+      </c>
+      <c r="F87">
+        <v>0.01596796650296936</v>
+      </c>
+      <c r="G87">
+        <v>0.1076834906563895</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02921354607215993</v>
+        <v>-0.09136153373329244</v>
       </c>
       <c r="C88">
-        <v>-0.02970419763143066</v>
+        <v>0.06650051978082649</v>
       </c>
       <c r="D88">
-        <v>0.05434283461488105</v>
+        <v>0.02251477003699676</v>
       </c>
       <c r="E88">
-        <v>-0.003203184044330037</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.008335810584965655</v>
+      </c>
+      <c r="F88">
+        <v>-0.01829763281501451</v>
+      </c>
+      <c r="G88">
+        <v>0.07310155377125448</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.09559901437427638</v>
+        <v>-0.2349821154096917</v>
       </c>
       <c r="C89">
-        <v>-0.3937278913578126</v>
+        <v>-0.3678965669327758</v>
       </c>
       <c r="D89">
-        <v>-0.2069441452662775</v>
+        <v>0.0005386365186359454</v>
       </c>
       <c r="E89">
-        <v>-0.01883630866001484</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01361988938853025</v>
+      </c>
+      <c r="F89">
+        <v>-0.02732131060075127</v>
+      </c>
+      <c r="G89">
+        <v>0.06245318352197265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.07280786882754739</v>
+        <v>-0.2080798132253354</v>
       </c>
       <c r="C90">
-        <v>-0.3069082528645399</v>
+        <v>-0.319216434647942</v>
       </c>
       <c r="D90">
-        <v>-0.1907663156550716</v>
+        <v>-0.003921939483977918</v>
       </c>
       <c r="E90">
-        <v>0.02211008409938142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.002631805545783481</v>
+      </c>
+      <c r="F90">
+        <v>-0.05220579984060116</v>
+      </c>
+      <c r="G90">
+        <v>0.02671973642421464</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.01436129180618482</v>
+        <v>-0.1887654815915277</v>
       </c>
       <c r="C91">
-        <v>-0.1396155739580145</v>
+        <v>0.1397704058668221</v>
       </c>
       <c r="D91">
-        <v>0.2140642068431404</v>
+        <v>-0.02326636365104779</v>
       </c>
       <c r="E91">
-        <v>-0.01312470246209393</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06379653755729675</v>
+      </c>
+      <c r="F91">
+        <v>-0.1511016901576306</v>
+      </c>
+      <c r="G91">
+        <v>0.009956624702716412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.04091282194080753</v>
+        <v>-0.2017298246981777</v>
       </c>
       <c r="C92">
-        <v>-0.3200283932068465</v>
+        <v>-0.256607721280897</v>
       </c>
       <c r="D92">
-        <v>-0.08781553720118332</v>
+        <v>-0.03821969102660373</v>
       </c>
       <c r="E92">
-        <v>0.02328447234598132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03091868049597621</v>
+      </c>
+      <c r="F92">
+        <v>-0.06367291250868692</v>
+      </c>
+      <c r="G92">
+        <v>0.1325724613278251</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.07085297866296184</v>
+        <v>-0.2321303053842405</v>
       </c>
       <c r="C93">
-        <v>-0.3267886101284286</v>
+        <v>-0.3155322247002852</v>
       </c>
       <c r="D93">
-        <v>-0.1687984382964867</v>
+        <v>-0.01077468024632982</v>
       </c>
       <c r="E93">
-        <v>0.04254083035400832</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.007890461640497937</v>
+      </c>
+      <c r="F93">
+        <v>-0.03503434742218323</v>
+      </c>
+      <c r="G93">
+        <v>0.02958412503852699</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03785580915582981</v>
+        <v>-0.3174059363464241</v>
       </c>
       <c r="C94">
-        <v>-0.1589841732976944</v>
+        <v>0.1763602720203285</v>
       </c>
       <c r="D94">
-        <v>0.2258822384119596</v>
+        <v>-0.01836587326259571</v>
       </c>
       <c r="E94">
-        <v>0.01325601122599637</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1733948070678616</v>
+      </c>
+      <c r="F94">
+        <v>-0.4675708369760524</v>
+      </c>
+      <c r="G94">
+        <v>-0.3372213894049927</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.00217451260271076</v>
+        <v>-0.09927997672913486</v>
       </c>
       <c r="C95">
-        <v>-0.03556083420219576</v>
+        <v>0.08567765208357542</v>
       </c>
       <c r="D95">
-        <v>0.1107242025620802</v>
+        <v>-0.009836187396692795</v>
       </c>
       <c r="E95">
-        <v>0.1269340977344901</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07177661335365314</v>
+      </c>
+      <c r="F95">
+        <v>0.2028367282226889</v>
+      </c>
+      <c r="G95">
+        <v>-0.06235500857369297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.02085801983602405</v>
+        <v>-0.197234930299287</v>
       </c>
       <c r="C98">
-        <v>-0.1550218508637105</v>
+        <v>0.04834497669772901</v>
       </c>
       <c r="D98">
-        <v>0.1525420847522418</v>
+        <v>-0.01234718077086584</v>
       </c>
       <c r="E98">
-        <v>0.03476047633273285</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06980668172365337</v>
+      </c>
+      <c r="F98">
+        <v>0.2415923070799161</v>
+      </c>
+      <c r="G98">
+        <v>-0.009838630700460265</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009315441134122178</v>
+        <v>-0.008999781576680584</v>
       </c>
       <c r="C101">
-        <v>-0.0170198837904768</v>
+        <v>0.02172650638737733</v>
       </c>
       <c r="D101">
-        <v>0.01414597296265243</v>
+        <v>0.008466092647625644</v>
       </c>
       <c r="E101">
-        <v>-0.003379986197875741</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.0006416086691881029</v>
+      </c>
+      <c r="F101">
+        <v>-0.01588413707484701</v>
+      </c>
+      <c r="G101">
+        <v>0.08119731687444935</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.02052501841551629</v>
+        <v>-0.1172504890018812</v>
       </c>
       <c r="C102">
-        <v>-0.06603720587184966</v>
+        <v>0.08459314565126841</v>
       </c>
       <c r="D102">
-        <v>0.1217708394317082</v>
+        <v>0.0006057469240834186</v>
       </c>
       <c r="E102">
-        <v>-0.001757058497208144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03440137895983768</v>
+      </c>
+      <c r="F102">
+        <v>-0.04183654340867322</v>
+      </c>
+      <c r="G102">
+        <v>-0.001329426199224525</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.002009055530745778</v>
+        <v>-0.003140887967580223</v>
       </c>
       <c r="C103">
-        <v>-0.01046242133832736</v>
+        <v>0.002512288042250039</v>
       </c>
       <c r="D103">
-        <v>0.0166577954133087</v>
+        <v>-4.269165272605475e-05</v>
       </c>
       <c r="E103">
-        <v>-0.01557439748890454</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001096546679632161</v>
+      </c>
+      <c r="F103">
+        <v>-0.007893741497617819</v>
+      </c>
+      <c r="G103">
+        <v>0.01483442600275194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9689542049341773</v>
+        <v>-0.02086646909417206</v>
       </c>
       <c r="C104">
-        <v>0.205620187069909</v>
+        <v>-0.02860946462878679</v>
       </c>
       <c r="D104">
-        <v>-0.02496571620602327</v>
+        <v>0.9875129127397234</v>
       </c>
       <c r="E104">
-        <v>-0.03815944964029648</v>
+        <v>-0.04932478002196444</v>
+      </c>
+      <c r="F104">
+        <v>-0.0386072375460672</v>
+      </c>
+      <c r="G104">
+        <v>-0.02802154926456048</v>
       </c>
     </row>
   </sheetData>
